--- a/data_year/zb/公共管理、社会保障及其他/人民检察院办理民事、行政抗诉案件情况/人民检察院民事案件.xlsx
+++ b/data_year/zb/公共管理、社会保障及其他/人民检察院办理民事、行政抗诉案件情况/人民检察院民事案件.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L15"/>
+  <dimension ref="A1:L13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -493,499 +493,417 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2007年</t>
+          <t>2010年</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>409</v>
+        <v>428</v>
       </c>
       <c r="C2" t="n">
-        <v>235</v>
+        <v>1007</v>
       </c>
       <c r="D2" t="n">
-        <v>7643</v>
+        <v>9485</v>
       </c>
       <c r="E2" t="n">
-        <v>11350</v>
+        <v>11751</v>
       </c>
       <c r="F2" t="n">
-        <v>13368</v>
+        <v>14819</v>
       </c>
       <c r="G2" t="n">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="H2" t="n">
-        <v>3187</v>
+        <v>3691</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="n">
-        <v>35424</v>
+        <v>76642</v>
       </c>
       <c r="K2" t="n">
-        <v>2060</v>
+        <v>1781</v>
       </c>
       <c r="L2" t="n">
-        <v>1752</v>
+        <v>2578</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2008年</t>
+          <t>2011年</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>346</v>
+        <v>329</v>
       </c>
       <c r="C3" t="n">
-        <v>331</v>
+        <v>940</v>
       </c>
       <c r="D3" t="n">
-        <v>7347</v>
+        <v>8074</v>
       </c>
       <c r="E3" t="n">
-        <v>10966</v>
+        <v>10022</v>
       </c>
       <c r="F3" t="n">
-        <v>13135</v>
+        <v>12978</v>
       </c>
       <c r="G3" t="n">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="H3" t="n">
-        <v>3263</v>
+        <v>3069</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="n">
-        <v>34221</v>
+        <v>62497</v>
       </c>
       <c r="K3" t="n">
-        <v>1763</v>
+        <v>1452</v>
       </c>
       <c r="L3" t="n">
-        <v>1644</v>
+        <v>2284</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2009年</t>
+          <t>2012年</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>368</v>
+        <v>296</v>
       </c>
       <c r="C4" t="n">
-        <v>687</v>
+        <v>853</v>
       </c>
       <c r="D4" t="n">
-        <v>7469</v>
+        <v>7122</v>
       </c>
       <c r="E4" t="n">
-        <v>11226</v>
+        <v>10244</v>
       </c>
       <c r="F4" t="n">
-        <v>13580</v>
-      </c>
-      <c r="G4" t="n">
-        <v>56</v>
-      </c>
+        <v>14068</v>
+      </c>
+      <c r="G4" t="inlineStr"/>
       <c r="H4" t="n">
-        <v>2940</v>
+        <v>2644</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="n">
-        <v>39490</v>
+        <v>61684</v>
       </c>
       <c r="K4" t="n">
-        <v>1610</v>
+        <v>1010</v>
       </c>
       <c r="L4" t="n">
-        <v>1864</v>
+        <v>2319</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2010年</t>
+          <t>2013年</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>428</v>
+        <v>477</v>
       </c>
       <c r="C5" t="n">
-        <v>1007</v>
+        <v>653</v>
       </c>
       <c r="D5" t="n">
-        <v>9485</v>
+        <v>5781</v>
       </c>
       <c r="E5" t="n">
-        <v>11751</v>
+        <v>5727</v>
       </c>
       <c r="F5" t="n">
-        <v>14819</v>
-      </c>
-      <c r="G5" t="n">
-        <v>26</v>
-      </c>
+        <v>5609</v>
+      </c>
+      <c r="G5" t="inlineStr"/>
       <c r="H5" t="n">
-        <v>3691</v>
+        <v>2157</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="n">
-        <v>76642</v>
+        <v>133041</v>
       </c>
       <c r="K5" t="n">
-        <v>1781</v>
+        <v>1120</v>
       </c>
       <c r="L5" t="n">
-        <v>2578</v>
+        <v>1374</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2011年</t>
+          <t>2014年</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>329</v>
+        <v>256</v>
       </c>
       <c r="C6" t="n">
-        <v>940</v>
+        <v>499</v>
       </c>
       <c r="D6" t="n">
-        <v>8074</v>
+        <v>3609</v>
       </c>
       <c r="E6" t="n">
-        <v>10022</v>
+        <v>4064</v>
       </c>
       <c r="F6" t="n">
-        <v>12978</v>
-      </c>
-      <c r="G6" t="n">
-        <v>33</v>
-      </c>
+        <v>5910</v>
+      </c>
+      <c r="G6" t="inlineStr"/>
       <c r="H6" t="n">
-        <v>3069</v>
+        <v>1565</v>
       </c>
       <c r="I6" t="inlineStr"/>
-      <c r="J6" t="n">
-        <v>62497</v>
-      </c>
+      <c r="J6" t="inlineStr"/>
       <c r="K6" t="n">
-        <v>1452</v>
+        <v>798</v>
       </c>
       <c r="L6" t="n">
-        <v>2284</v>
+        <v>491</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2012年</t>
+          <t>2015年</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>296</v>
+        <v>167</v>
       </c>
       <c r="C7" t="n">
-        <v>853</v>
+        <v>364</v>
       </c>
       <c r="D7" t="n">
-        <v>7122</v>
+        <v>2414</v>
       </c>
       <c r="E7" t="n">
-        <v>10244</v>
+        <v>3391</v>
       </c>
       <c r="F7" t="n">
-        <v>14068</v>
+        <v>4970</v>
       </c>
       <c r="G7" t="inlineStr"/>
       <c r="H7" t="n">
-        <v>2644</v>
+        <v>1060</v>
       </c>
       <c r="I7" t="inlineStr"/>
-      <c r="J7" t="n">
-        <v>61684</v>
-      </c>
+      <c r="J7" t="inlineStr"/>
       <c r="K7" t="n">
-        <v>1010</v>
+        <v>577</v>
       </c>
       <c r="L7" t="n">
-        <v>2319</v>
+        <v>246</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2013年</t>
+          <t>2016年</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>477</v>
+        <v>124</v>
       </c>
       <c r="C8" t="n">
-        <v>653</v>
+        <v>305</v>
       </c>
       <c r="D8" t="n">
-        <v>5781</v>
+        <v>1656</v>
       </c>
       <c r="E8" t="n">
-        <v>5727</v>
+        <v>3136</v>
       </c>
       <c r="F8" t="n">
-        <v>5609</v>
-      </c>
-      <c r="G8" t="inlineStr"/>
+        <v>4933</v>
+      </c>
+      <c r="G8" t="n">
+        <v>2803</v>
+      </c>
       <c r="H8" t="n">
-        <v>2157</v>
+        <v>739</v>
       </c>
       <c r="I8" t="inlineStr"/>
-      <c r="J8" t="n">
-        <v>133041</v>
-      </c>
+      <c r="J8" t="inlineStr"/>
       <c r="K8" t="n">
-        <v>1120</v>
+        <v>346</v>
       </c>
       <c r="L8" t="n">
-        <v>1374</v>
+        <v>142</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>2014年</t>
+          <t>2017年</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>256</v>
+        <v>104</v>
       </c>
       <c r="C9" t="n">
-        <v>499</v>
+        <v>223</v>
       </c>
       <c r="D9" t="n">
-        <v>3609</v>
+        <v>1647</v>
       </c>
       <c r="E9" t="n">
-        <v>4064</v>
+        <v>3144</v>
       </c>
       <c r="F9" t="n">
-        <v>5910</v>
+        <v>5814</v>
       </c>
       <c r="G9" t="inlineStr"/>
       <c r="H9" t="n">
-        <v>1565</v>
+        <v>859</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="n">
-        <v>798</v>
+        <v>350</v>
       </c>
       <c r="L9" t="n">
-        <v>491</v>
+        <v>111</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>2015年</t>
+          <t>2018年</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>167</v>
+        <v>120</v>
       </c>
       <c r="C10" t="n">
-        <v>364</v>
+        <v>346</v>
       </c>
       <c r="D10" t="n">
-        <v>2414</v>
+        <v>1982</v>
       </c>
       <c r="E10" t="n">
-        <v>3391</v>
+        <v>3933</v>
       </c>
       <c r="F10" t="n">
-        <v>4970</v>
+        <v>7037</v>
       </c>
       <c r="G10" t="inlineStr"/>
       <c r="H10" t="n">
-        <v>1060</v>
+        <v>956</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="n">
-        <v>577</v>
+        <v>413</v>
       </c>
       <c r="L10" t="n">
-        <v>246</v>
+        <v>147</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>2016年</t>
+          <t>2019年</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>124</v>
+        <v>81</v>
       </c>
       <c r="C11" t="n">
-        <v>305</v>
+        <v>472</v>
       </c>
       <c r="D11" t="n">
-        <v>1656</v>
-      </c>
-      <c r="E11" t="n">
-        <v>3136</v>
-      </c>
+        <v>4091</v>
+      </c>
+      <c r="E11" t="inlineStr"/>
       <c r="F11" t="n">
-        <v>4933</v>
-      </c>
-      <c r="G11" t="n">
-        <v>2803</v>
-      </c>
+        <v>5103</v>
+      </c>
+      <c r="G11" t="inlineStr"/>
       <c r="H11" t="n">
-        <v>739</v>
+        <v>2342</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="n">
-        <v>346</v>
+        <v>838</v>
       </c>
       <c r="L11" t="n">
-        <v>142</v>
+        <v>244</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>2017年</t>
+          <t>2020年</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>104</v>
+        <v>83</v>
       </c>
       <c r="C12" t="n">
-        <v>223</v>
+        <v>523</v>
       </c>
       <c r="D12" t="n">
-        <v>1647</v>
-      </c>
-      <c r="E12" t="n">
-        <v>3144</v>
-      </c>
+        <v>3693</v>
+      </c>
+      <c r="E12" t="inlineStr"/>
       <c r="F12" t="n">
-        <v>5814</v>
+        <v>4994</v>
       </c>
       <c r="G12" t="inlineStr"/>
       <c r="H12" t="n">
-        <v>859</v>
+        <v>2170</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="n">
-        <v>350</v>
+        <v>627</v>
       </c>
       <c r="L12" t="n">
-        <v>111</v>
+        <v>200</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>2018年</t>
+          <t>2021年</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>120</v>
+        <v>48</v>
       </c>
       <c r="C13" t="n">
-        <v>346</v>
+        <v>574</v>
       </c>
       <c r="D13" t="n">
-        <v>1982</v>
-      </c>
-      <c r="E13" t="n">
-        <v>3933</v>
-      </c>
+        <v>4006</v>
+      </c>
+      <c r="E13" t="inlineStr"/>
       <c r="F13" t="n">
-        <v>7037</v>
+        <v>5319</v>
       </c>
       <c r="G13" t="inlineStr"/>
       <c r="H13" t="n">
-        <v>956</v>
+        <v>2703</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="n">
-        <v>413</v>
+        <v>428</v>
       </c>
       <c r="L13" t="n">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>2019年</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>81</v>
-      </c>
-      <c r="C14" t="n">
-        <v>472</v>
-      </c>
-      <c r="D14" t="n">
-        <v>4091</v>
-      </c>
-      <c r="E14" t="inlineStr"/>
-      <c r="F14" t="n">
-        <v>5103</v>
-      </c>
-      <c r="G14" t="inlineStr"/>
-      <c r="H14" t="n">
-        <v>2342</v>
-      </c>
-      <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="n">
-        <v>838</v>
-      </c>
-      <c r="L14" t="n">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="inlineStr">
-        <is>
-          <t>2020年</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>83</v>
-      </c>
-      <c r="C15" t="n">
-        <v>523</v>
-      </c>
-      <c r="D15" t="n">
-        <v>3693</v>
-      </c>
-      <c r="E15" t="inlineStr"/>
-      <c r="F15" t="n">
-        <v>4994</v>
-      </c>
-      <c r="G15" t="inlineStr"/>
-      <c r="H15" t="n">
-        <v>2170</v>
-      </c>
-      <c r="I15" t="inlineStr"/>
-      <c r="J15" t="inlineStr"/>
-      <c r="K15" t="n">
-        <v>627</v>
-      </c>
-      <c r="L15" t="n">
-        <v>200</v>
+        <v>179</v>
       </c>
     </row>
   </sheetData>
